--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE293537-17CD-45ED-913E-805BED745E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE69C2-EF3B-441B-89C6-E73500482E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -436,16 +436,10 @@
     <t>0 &lt;= table &lt;=8</t>
   </si>
   <si>
-    <t>table &lt; 0 or table &gt; 8</t>
-  </si>
-  <si>
     <t>amount is Float</t>
   </si>
   <si>
     <t>amount &gt; 0</t>
-  </si>
-  <si>
-    <t>amount &lt; 0</t>
   </si>
   <si>
     <t>table not Integer</t>
@@ -588,13 +582,25 @@
     <t>05. amount = 0.01 , amount&gt;0</t>
   </si>
   <si>
-    <t>06. amount = 100 , amount&gt;0</t>
-  </si>
-  <si>
     <t>07. amount = 0 , amount&lt;0</t>
   </si>
   <si>
-    <t>08. amount = -5, amount&lt;0</t>
+    <t>amount &lt;= 0</t>
+  </si>
+  <si>
+    <t>table &lt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> table &gt; 8</t>
+  </si>
+  <si>
+    <t>09. table =2, table&gt;1</t>
+  </si>
+  <si>
+    <t>10. table = 7, table&lt;8</t>
+  </si>
+  <si>
+    <t>payment added (before fixed bugs)</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1447,6 +1453,80 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,6 +1551,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1483,60 +1584,123 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,170 +1709,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2083,7 +2083,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -2097,12 +2097,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
       <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
@@ -2110,11 +2110,11 @@
       <c r="J1" s="25"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2209,7 +2209,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="49" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="1"/>
@@ -2277,21 +2277,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="24"/>
@@ -2312,10 +2312,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2336,39 +2336,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="G5" s="92" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="G5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="94"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
@@ -2383,360 +2383,375 @@
       <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64" t="s">
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="64"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>99</v>
+      <c r="C7" s="80" t="s">
+        <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="11" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="64"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="103" t="s">
-        <v>111</v>
+        <v>102</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>109</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="8">
         <v>3</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K8" s="8">
         <v>50</v>
       </c>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="100"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>100</v>
+      <c r="C9" s="81" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="G9" s="103" t="s">
-        <v>115</v>
+      <c r="G9" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="8">
         <v>3</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K9" s="8">
         <v>50</v>
       </c>
-      <c r="L9" s="100" t="s">
+      <c r="L9" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="100"/>
+      <c r="M9" s="88"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="97">
+        <v>100</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="52">
         <v>9</v>
       </c>
-      <c r="J10" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="96">
+      <c r="J10" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="51">
         <v>50</v>
       </c>
-      <c r="L10" s="102" t="s">
+      <c r="L10" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="102"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="80" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="101">
+      <c r="G11" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="4">
         <v>9</v>
       </c>
-      <c r="J11" s="101" t="s">
-        <v>105</v>
+      <c r="J11" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="K11" s="10">
         <v>-1</v>
       </c>
-      <c r="L11" s="99" t="s">
+      <c r="L11" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="99"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="54"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="8">
-        <v>3</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="8">
-        <v>50</v>
-      </c>
-      <c r="L12" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="100"/>
+        <v>131</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
-        <v>7</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="G13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="96">
+        <v>114</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="8">
         <v>3</v>
       </c>
-      <c r="J13" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="95">
+      <c r="J13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="8">
         <v>50</v>
       </c>
-      <c r="L13" s="102" t="s">
+      <c r="L13" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="102"/>
+      <c r="M13" s="88"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="G14" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="101">
+        <v>115</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="51">
+        <v>3</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="50">
         <v>50</v>
       </c>
-      <c r="L14" s="99" t="s">
+      <c r="L14" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="99"/>
+      <c r="M14" s="87"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
-        <v>9</v>
-      </c>
-      <c r="C15" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="4"/>
       <c r="G15" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="101">
-        <v>9</v>
-      </c>
-      <c r="J15" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="99" t="s">
+      <c r="J15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="4">
+        <v>50</v>
+      </c>
+      <c r="L15" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="99"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="G16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="4">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="80"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
-        <v>11</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
+        <v>11</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="91"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="91"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="F22:G22"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2747,10 +2762,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:O28"/>
+  <dimension ref="B1:O30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2774,41 +2789,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
+      <c r="B3" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
+      <c r="G5" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
     </row>
     <row r="6" spans="2:15" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -2821,348 +2836,322 @@
         <v>28</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="101"/>
+    </row>
+    <row r="7" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="80">
+        <v>1</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="103"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="80"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="57">
+        <v>1</v>
+      </c>
+      <c r="H8" s="59">
+        <v>1</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="62">
+        <v>1</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="62">
+        <v>20</v>
+      </c>
+      <c r="N8" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="98"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="80"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="80"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="80"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="64">
+        <v>2</v>
+      </c>
+      <c r="H11" s="65">
+        <v>2</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="62">
+        <v>8</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="62">
         <v>30</v>
       </c>
-      <c r="I6" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="111" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="111"/>
-    </row>
-    <row r="7" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="54">
-        <v>1</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="114" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="110"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="54"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="115" t="s">
+      <c r="N11" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="99"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="80"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="113">
-        <v>1</v>
-      </c>
-      <c r="H8" s="116">
-        <v>1</v>
-      </c>
-      <c r="I8" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="118" t="s">
+      <c r="G12" s="57">
+        <v>3</v>
+      </c>
+      <c r="H12" s="59">
+        <v>3</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="119">
-        <v>1</v>
-      </c>
-      <c r="L8" s="119" t="s">
+      <c r="K12" s="68">
+        <v>0</v>
+      </c>
+      <c r="L12" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="119">
-        <v>20</v>
-      </c>
-      <c r="N8" s="120" t="s">
+      <c r="M12" s="69">
+        <v>40</v>
+      </c>
+      <c r="N12" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="97"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="95">
+        <v>2</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="57">
+        <v>4</v>
+      </c>
+      <c r="H13" s="59">
+        <v>4</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="71">
+        <v>9</v>
+      </c>
+      <c r="L13" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="72">
+        <v>40</v>
+      </c>
+      <c r="N13" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="97"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="58"/>
+      <c r="G14" s="57">
+        <v>5</v>
+      </c>
+      <c r="H14" s="59">
+        <v>5</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="74">
+        <v>2</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="120"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="54"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="121">
+      <c r="O14" s="98"/>
+    </row>
+    <row r="15" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="58"/>
+      <c r="G16" s="57">
+        <v>7</v>
+      </c>
+      <c r="H16" s="59">
+        <v>7</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="72">
         <v>2</v>
       </c>
-      <c r="H9" s="122">
-        <v>2</v>
-      </c>
-      <c r="I9" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="119">
-        <v>8</v>
-      </c>
-      <c r="L9" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="119">
-        <v>30</v>
-      </c>
-      <c r="N9" s="124" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="124"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="54"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="113">
-        <v>3</v>
-      </c>
-      <c r="H10" s="116">
-        <v>3</v>
-      </c>
-      <c r="I10" s="125" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="126">
+      <c r="L16" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="71">
         <v>0</v>
       </c>
-      <c r="L10" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="127">
-        <v>40</v>
-      </c>
-      <c r="N10" s="128" t="s">
+      <c r="N16" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="128"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="129">
-        <v>2</v>
-      </c>
-      <c r="C11" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="113">
-        <v>4</v>
-      </c>
-      <c r="H11" s="116">
-        <v>4</v>
-      </c>
-      <c r="I11" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="132">
-        <v>9</v>
-      </c>
-      <c r="L11" s="133" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="133">
-        <v>40</v>
-      </c>
-      <c r="N11" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="128"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="113">
-        <v>5</v>
-      </c>
-      <c r="H12" s="116">
-        <v>5</v>
-      </c>
-      <c r="I12" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="135">
-        <v>2</v>
-      </c>
-      <c r="L12" s="135" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="135">
-        <v>0.01</v>
-      </c>
-      <c r="N12" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="120"/>
-    </row>
-    <row r="13" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="121">
-        <v>6</v>
-      </c>
-      <c r="H13" s="122">
-        <v>6</v>
-      </c>
-      <c r="I13" s="134" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="135">
-        <v>2</v>
-      </c>
-      <c r="L13" s="135" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="135">
-        <v>100</v>
-      </c>
-      <c r="N13" s="124" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="124"/>
-    </row>
-    <row r="14" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="113">
-        <v>7</v>
-      </c>
-      <c r="H14" s="116">
-        <v>7</v>
-      </c>
-      <c r="I14" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="133">
-        <v>2</v>
-      </c>
-      <c r="L14" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="132">
-        <v>0</v>
-      </c>
-      <c r="N14" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="128"/>
-    </row>
-    <row r="15" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="113">
-        <v>8</v>
-      </c>
-      <c r="H15" s="116">
-        <v>8</v>
-      </c>
-      <c r="I15" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="133">
-        <v>2</v>
-      </c>
-      <c r="L15" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="132">
-        <v>-5</v>
-      </c>
-      <c r="N15" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" s="128"/>
-    </row>
-    <row r="16" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
+      <c r="O16" s="97"/>
+    </row>
+    <row r="17" spans="7:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H6:H7"/>
+  <mergeCells count="23">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3176,68 +3165,74 @@
   </sheetPr>
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="64" t="s">
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="64"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="79"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="13" t="s">
         <v>56</v>
       </c>
@@ -3258,7 +3253,7 @@
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="119" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -3288,7 +3283,7 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="17" t="s">
         <v>59</v>
       </c>
@@ -3316,7 +3311,7 @@
         <f t="shared" ref="B8:B17" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="30" t="s">
         <v>42</v>
       </c>
@@ -3333,7 +3328,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>66</v>
@@ -3344,7 +3339,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="30" t="s">
         <v>60</v>
       </c>
@@ -3361,7 +3356,7 @@
         <v>-20</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>66</v>
@@ -3372,7 +3367,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
@@ -3400,7 +3395,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
@@ -3428,7 +3423,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="30" t="s">
         <v>26</v>
       </c>
@@ -3445,7 +3440,7 @@
         <v>40</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>66</v>
@@ -3456,7 +3451,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="36" t="s">
         <v>26</v>
       </c>
@@ -3473,7 +3468,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>66</v>
@@ -3484,7 +3479,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="46" t="s">
         <v>26</v>
       </c>
@@ -3512,7 +3507,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="85"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="46" t="s">
         <v>26</v>
       </c>
@@ -3540,7 +3535,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="85"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="36" t="s">
         <v>26</v>
       </c>
@@ -3557,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="J16" s="37" t="s">
         <v>66</v>
@@ -3568,7 +3563,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C17" s="86"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="36" t="s">
         <v>26</v>
       </c>
@@ -3585,7 +3580,7 @@
         <v>-5</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="J17" s="37" t="s">
         <v>66</v>
@@ -3610,72 +3605,72 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
       <c r="G22" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="87"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="75"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="114"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="76" t="s">
+      <c r="H23" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="88" t="s">
+      <c r="I23" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="72" t="s">
+      <c r="L23" s="110" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="110"/>
     </row>
     <row r="25" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
@@ -3714,20 +3709,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C6:C17"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="F4:H4"/>
@@ -3736,6 +3717,20 @@
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3744,6 +3739,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3887,22 +3897,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3918,21 +3930,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>